--- a/top_league_soccer/Excel/dados_primeira_liga.xlsx
+++ b/top_league_soccer/Excel/dados_primeira_liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>#</t>
   </si>
@@ -148,18 +148,18 @@
     <t>1.9</t>
   </si>
   <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
     <t>3.2</t>
   </si>
   <si>
@@ -178,15 +178,12 @@
     <t>7.0</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>6.0</t>
   </si>
   <si>
     <t>7.5</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
     <t>6.8</t>
   </si>
   <si>
@@ -229,7 +226,7 @@
     <t>86%</t>
   </si>
   <si>
-    <t>52%</t>
+    <t>55%</t>
   </si>
   <si>
     <t>77%</t>
@@ -250,24 +247,18 @@
     <t>59%</t>
   </si>
   <si>
-    <t>75%</t>
+    <t>71%</t>
   </si>
   <si>
     <t>45%</t>
   </si>
   <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>43%</t>
+    <t>41%</t>
   </si>
   <si>
     <t>44%</t>
   </si>
   <si>
-    <t>41%</t>
-  </si>
-  <si>
     <t>32%</t>
   </si>
   <si>
@@ -277,7 +268,7 @@
     <t>3.05</t>
   </si>
   <si>
-    <t>3.85</t>
+    <t>3.76</t>
   </si>
   <si>
     <t>2.41</t>
@@ -289,7 +280,7 @@
     <t>2.64</t>
   </si>
   <si>
-    <t>2.38</t>
+    <t>2.36</t>
   </si>
   <si>
     <t>2.95</t>
@@ -717,13 +708,13 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -740,13 +731,13 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -763,13 +754,13 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -783,16 +774,16 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -806,16 +797,16 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -829,16 +820,16 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -849,19 +840,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -875,16 +866,16 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -898,16 +889,16 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -921,16 +912,16 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -944,16 +935,16 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -967,16 +958,16 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -990,16 +981,16 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1010,19 +1001,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1036,16 +1027,16 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1059,16 +1050,16 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1082,16 +1073,16 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1105,16 +1096,16 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_primeira_liga.xlsx
+++ b/top_league_soccer/Excel/dados_primeira_liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -91,12 +91,12 @@
     <t>18.</t>
   </si>
   <si>
+    <t>Sporting</t>
+  </si>
+  <si>
     <t>Benfica</t>
   </si>
   <si>
-    <t>Sporting</t>
-  </si>
-  <si>
     <t>Porto</t>
   </si>
   <si>
@@ -112,19 +112,22 @@
     <t>Arouca</t>
   </si>
   <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
     <t>Famalicão</t>
   </si>
   <si>
     <t>Farense</t>
   </si>
   <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
     <t>Boavista</t>
   </si>
   <si>
-    <t>Casa Pia</t>
+    <t>Rio Ave</t>
   </si>
   <si>
     <t>Portimonense</t>
@@ -136,19 +139,16 @@
     <t>Estrela Amadora</t>
   </si>
   <si>
-    <t>Rio Ave</t>
-  </si>
-  <si>
     <t>Chaves</t>
   </si>
   <si>
     <t>Vizela</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>2.7</t>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>1.8</t>
   </si>
   <si>
     <t>3.0</t>
@@ -160,154 +160,166 @@
     <t>2.5</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.4</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>2.9</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>7.5</t>
+    <t>6.3</t>
   </si>
   <si>
     <t>6.8</t>
   </si>
   <si>
-    <t>4.7</t>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>77%</t>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>91%</t>
   </si>
   <si>
     <t>67%</t>
   </si>
   <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>3.59</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.77</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>3.18</t>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>3.17</t>
   </si>
   <si>
     <t>2.50</t>
   </si>
   <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>2.91</t>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>2.92</t>
   </si>
 </sst>
 </file>
@@ -705,16 +717,16 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -728,16 +740,16 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -751,16 +763,16 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -774,16 +786,16 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
         <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -794,19 +806,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -820,16 +832,16 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -843,16 +855,16 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -866,16 +878,16 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -889,16 +901,16 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -912,16 +924,16 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -935,16 +947,16 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -955,19 +967,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -978,19 +990,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1001,19 +1013,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1024,19 +1036,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
         <v>75</v>
       </c>
-      <c r="F16" t="s">
-        <v>79</v>
-      </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1047,19 +1059,19 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1070,19 +1082,19 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1093,19 +1105,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_primeira_liga.xlsx
+++ b/top_league_soccer/Excel/dados_primeira_liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -115,16 +115,19 @@
     <t>Gil Vicente</t>
   </si>
   <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Famalicão</t>
+  </si>
+  <si>
     <t>Casa Pia</t>
   </si>
   <si>
-    <t>Famalicão</t>
-  </si>
-  <si>
     <t>Farense</t>
   </si>
   <si>
-    <t>Boavista</t>
+    <t>Estrela Amadora</t>
   </si>
   <si>
     <t>Rio Ave</t>
@@ -136,190 +139,199 @@
     <t>Estoril</t>
   </si>
   <si>
-    <t>Estrela Amadora</t>
+    <t>Vizela</t>
   </si>
   <si>
     <t>Chaves</t>
   </si>
   <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>2.6</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>1.8</t>
   </si>
   <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>6.3</t>
+    <t>6.0</t>
   </si>
   <si>
     <t>6.8</t>
   </si>
   <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>6.7</t>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>5.8</t>
   </si>
   <si>
     <t>4.8</t>
   </si>
   <si>
-    <t>3.9</t>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
+    <t>5.6</t>
+  </si>
+  <si>
     <t>4.6</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>96%</t>
   </si>
   <si>
-    <t>83%</t>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>68%</t>
   </si>
   <si>
     <t>75%</t>
   </si>
   <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>47%</t>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>52%</t>
   </si>
   <si>
     <t>61%</t>
   </si>
   <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>2.46</t>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>2.36</t>
   </si>
   <si>
     <t>3.04</t>
   </si>
   <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>3.25</t>
+    <t>3.60</t>
   </si>
   <si>
     <t>2.92</t>
+  </si>
+  <si>
+    <t>3.12</t>
   </si>
 </sst>
 </file>
@@ -717,16 +729,16 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -740,16 +752,16 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -763,16 +775,16 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -786,16 +798,16 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -809,16 +821,16 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -832,16 +844,16 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -852,19 +864,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -875,19 +887,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -898,19 +910,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -921,19 +933,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -944,19 +956,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -967,19 +979,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -990,7 +1002,7 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
@@ -999,10 +1011,10 @@
         <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1016,16 +1028,16 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1036,19 +1048,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1059,19 +1071,19 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1082,19 +1094,19 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1105,19 +1117,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_primeira_liga.xlsx
+++ b/top_league_soccer/Excel/dados_primeira_liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -106,10 +106,22 @@
     <t>Guimaraes</t>
   </si>
   <si>
+    <t>Arouca</t>
+  </si>
+  <si>
     <t>Moreirense</t>
   </si>
   <si>
-    <t>Arouca</t>
+    <t>Famalicão</t>
+  </si>
+  <si>
+    <t>Casa Pia</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Rio Ave</t>
   </si>
   <si>
     <t>Gil Vicente</t>
@@ -118,124 +130,112 @@
     <t>Boavista</t>
   </si>
   <si>
-    <t>Famalicão</t>
-  </si>
-  <si>
-    <t>Casa Pia</t>
-  </si>
-  <si>
-    <t>Farense</t>
+    <t>Estoril</t>
   </si>
   <si>
     <t>Estrela Amadora</t>
   </si>
   <si>
-    <t>Rio Ave</t>
-  </si>
-  <si>
     <t>Portimonense</t>
   </si>
   <si>
-    <t>Estoril</t>
+    <t>Chaves</t>
   </si>
   <si>
     <t>Vizela</t>
   </si>
   <si>
-    <t>Chaves</t>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>2.9</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
   <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>5.8</t>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
   <si>
     <t>4.8</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>48%</t>
+    <t>93%</t>
   </si>
   <si>
     <t>80%</t>
   </si>
   <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>88%</t>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>47%</t>
   </si>
   <si>
     <t>67%</t>
@@ -244,94 +244,73 @@
     <t>63%</t>
   </si>
   <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>56%</t>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>37%</t>
   </si>
   <si>
     <t>43%</t>
   </si>
   <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>3.44</t>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>3.23</t>
   </si>
   <si>
     <t>2.60</t>
   </si>
   <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>3.12</t>
+    <t>3.27</t>
   </si>
 </sst>
 </file>
@@ -732,13 +711,13 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -755,13 +734,13 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -778,13 +757,13 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -801,13 +780,13 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -821,16 +800,16 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -841,19 +820,19 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -867,16 +846,16 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -887,19 +866,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -910,19 +889,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -936,16 +915,16 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -956,19 +935,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -979,19 +958,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1002,19 +981,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1025,19 +1004,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1048,19 +1027,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1071,19 +1050,19 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1094,19 +1073,19 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1117,19 +1096,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
